--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_13_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988292.1310533307</v>
+        <v>985773.462638852</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>84.23825154616522</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>20.75054951475491</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>148.1776514406537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>54.95314960271718</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,7 +865,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,13 +902,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>223.3922079480015</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -953,10 +953,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>196.4212621567191</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>220.0324979307889</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>78.86261552750632</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>238.3262268437789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1187,19 +1187,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>20.923658794391</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>69.60662835550706</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>35.46298322420753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>28.11749662300566</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238035</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114107</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
-        <v>213.2783992984179</v>
+        <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035266</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.31896333661972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>136.6856111842613</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146344</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337163</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>34.32106446352662</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>39.37174119541505</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119253</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440905</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108359</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>156.2179706626116</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833515</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890389</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699826</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>40.15381658332852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>172.6684446854163</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701352</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>121.8000472740355</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2770,10 +2770,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>208.2078751493927</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2852,7 +2852,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174126</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699807</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>28.68281686619564</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012319</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>119.4566717128379</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784702</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,10 +3481,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>40.96105405076844</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695618</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3667,13 +3667,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0.8253826161944194</v>
+        <v>99.97427419833873</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323825</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3791,7 +3791,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,16 +3898,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>115.7063133373728</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4141,13 +4141,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>48.13676080754387</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.696546067094</v>
+        <v>859.685290191162</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7340291266823</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D2" t="n">
-        <v>455.6448861507579</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>69.85663355251366</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331018</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.53079966241</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392296</v>
+        <v>1623.290380428054</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131216</v>
+        <v>1249.824622166974</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.296386131216</v>
+        <v>859.685290191162</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>599.412276726074</v>
+        <v>790.7764984014354</v>
       </c>
       <c r="M3" t="n">
-        <v>1233.591260505113</v>
+        <v>1154.038517360656</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1541.323645957601</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460313</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>256.8716579022754</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="C4" t="n">
-        <v>256.8716579022754</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>106.7550184899397</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>106.7550184899397</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V4" t="n">
-        <v>767.0814070827661</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="W4" t="n">
-        <v>477.6642370458055</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="X4" t="n">
-        <v>477.6642370458055</v>
+        <v>570.4526592426267</v>
       </c>
       <c r="Y4" t="n">
-        <v>256.8716579022754</v>
+        <v>349.6600800990966</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.2842339216199</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="C5" t="n">
-        <v>880.2842339216199</v>
+        <v>1112.520734025444</v>
       </c>
       <c r="D5" t="n">
-        <v>522.0185353148695</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="E5" t="n">
-        <v>136.2302827166253</v>
+        <v>754.2550354186935</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>343.269130629086</v>
       </c>
       <c r="G5" t="n">
         <v>117.6204357321147</v>
@@ -4562,16 +4562,16 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2030.489164222633</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2030.489164222633</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1657.023405961553</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>1266.884073985742</v>
+        <v>1112.520734025444</v>
       </c>
     </row>
     <row r="6">
@@ -4638,10 +4638,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
         <v>113.5972052500113</v>
@@ -4653,16 +4653,16 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O6" t="n">
-        <v>1977.748514897737</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>347.89877828689</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>347.89877828689</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>347.89877828689</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>199.9856847044969</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>199.9856847044969</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4756,19 +4756,19 @@
         <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>892.0004365297375</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V7" t="n">
-        <v>637.3159483238506</v>
+        <v>1034.596277341134</v>
       </c>
       <c r="W7" t="n">
-        <v>347.89877828689</v>
+        <v>745.1791073041734</v>
       </c>
       <c r="X7" t="n">
-        <v>347.89877828689</v>
+        <v>517.189556406156</v>
       </c>
       <c r="Y7" t="n">
-        <v>347.89877828689</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4778,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1175.300932605789</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>934.5673701373257</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
         <v>523.5814653477182</v>
@@ -4799,10 +4799,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,43 +4811,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2403.60903256753</v>
       </c>
       <c r="X8" t="n">
-        <v>1952.040104645723</v>
+        <v>2030.14327430645</v>
       </c>
       <c r="Y8" t="n">
-        <v>1561.900772669911</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,10 +4875,10 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>456.9449278938906</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C10" t="n">
-        <v>456.9449278938906</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="D10" t="n">
-        <v>456.9449278938906</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>283.7117895417171</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>136.8218420438067</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4990,22 +4990,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981149</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X10" t="n">
-        <v>674.4145879000976</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y10" t="n">
-        <v>638.5933927241304</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1963.456154468493</v>
+        <v>1535.258832689354</v>
       </c>
       <c r="C11" t="n">
-        <v>1963.456154468493</v>
+        <v>1166.296315748942</v>
       </c>
       <c r="D11" t="n">
-        <v>1605.190455861743</v>
+        <v>808.0306171421917</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>422.2423645439476</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738911</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="G11" t="n">
-        <v>393.8408528035379</v>
+        <v>393.8408528035378</v>
       </c>
       <c r="H11" t="n">
         <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386829</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301223</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878108</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765424</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856281</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234589</v>
+        <v>3925.55331123459</v>
       </c>
       <c r="S11" t="n">
         <v>3826.588132455659</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971438</v>
+        <v>3622.786021971439</v>
       </c>
       <c r="U11" t="n">
-        <v>3407.35329540738</v>
+        <v>3369.295305604052</v>
       </c>
       <c r="V11" t="n">
-        <v>3076.290408063809</v>
+        <v>3038.232418260481</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.521752793695</v>
+        <v>2685.463762990367</v>
       </c>
       <c r="X11" t="n">
-        <v>2350.055994532615</v>
+        <v>2311.998004729287</v>
       </c>
       <c r="Y11" t="n">
-        <v>2350.055994532615</v>
+        <v>1921.858672753476</v>
       </c>
     </row>
     <row r="12">
@@ -5106,7 +5106,7 @@
         <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3935880326289</v>
+        <v>312.3935880326288</v>
       </c>
       <c r="G12" t="n">
         <v>176.2964087081428</v>
@@ -5115,28 +5115,28 @@
         <v>88.36274985503043</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792127</v>
+        <v>196.8120623792128</v>
       </c>
       <c r="K12" t="n">
-        <v>477.16213223765</v>
+        <v>477.1621322376502</v>
       </c>
       <c r="L12" t="n">
-        <v>477.16213223765</v>
+        <v>900.4499396649599</v>
       </c>
       <c r="M12" t="n">
-        <v>990.4759064815391</v>
+        <v>1337.658805224961</v>
       </c>
       <c r="N12" t="n">
-        <v>1531.784213832606</v>
+        <v>1878.967112576028</v>
       </c>
       <c r="O12" t="n">
-        <v>2004.755766698355</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.024069538509</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
         <v>2542.849288629729</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3333280164268</v>
+        <v>385.5135230760949</v>
       </c>
       <c r="C13" t="n">
-        <v>611.3971450885199</v>
+        <v>216.577340148188</v>
       </c>
       <c r="D13" t="n">
-        <v>461.2805056761841</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="E13" t="n">
-        <v>313.367412093791</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.5110662246918</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600398</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.45504734577</v>
+        <v>368.4550473457703</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888912</v>
+        <v>717.5002252888917</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.90854877922</v>
+        <v>1095.908548779221</v>
       </c>
       <c r="N13" t="n">
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551103</v>
+        <v>2155.909043551104</v>
       </c>
       <c r="R13" t="n">
-        <v>2076.102739014272</v>
+        <v>2076.102739014273</v>
       </c>
       <c r="S13" t="n">
-        <v>1888.302075370154</v>
+        <v>1888.302075370155</v>
       </c>
       <c r="T13" t="n">
-        <v>1888.302075370154</v>
+        <v>1667.488017920201</v>
       </c>
       <c r="U13" t="n">
-        <v>1599.211368810443</v>
+        <v>1378.39731136049</v>
       </c>
       <c r="V13" t="n">
-        <v>1344.526880604556</v>
+        <v>1123.712823154603</v>
       </c>
       <c r="W13" t="n">
-        <v>1055.109710567595</v>
+        <v>834.2956531176424</v>
       </c>
       <c r="X13" t="n">
-        <v>827.1201596695778</v>
+        <v>606.306102219625</v>
       </c>
       <c r="Y13" t="n">
-        <v>827.1201596695778</v>
+        <v>385.5135230760949</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555044</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,22 +5261,22 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251932</v>
+        <v>372.307498725193</v>
       </c>
       <c r="K14" t="n">
         <v>841.9378825128749</v>
@@ -5288,40 +5288,40 @@
         <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874794</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333931</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021279</v>
+        <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.497374127286</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304024</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S14" t="n">
-        <v>4605.913419421674</v>
+        <v>4555.113898070875</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750193</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469743</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126172</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856058</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594978</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619166</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608048</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779263</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412851</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385036</v>
+        <v>106.3138404733484</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>698.3321947254761</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.8149980365</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O15" t="n">
-        <v>2275.8149980365</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q15" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>677.2291802831423</v>
+        <v>494.0589900220733</v>
       </c>
       <c r="C16" t="n">
-        <v>637.4597447322183</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D16" t="n">
-        <v>637.4597447322183</v>
+        <v>175.0061676818304</v>
       </c>
       <c r="E16" t="n">
-        <v>489.5466511498252</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="F16" t="n">
-        <v>342.6567036519148</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="G16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608048</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156339</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861974</v>
+        <v>431.4224730861981</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693316</v>
+        <v>819.1842911693324</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213791</v>
@@ -5449,37 +5449,37 @@
         <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
-        <v>2020.132206020527</v>
+        <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856732</v>
+        <v>2310.662640856733</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410167</v>
+        <v>2428.375774410168</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.516429368668</v>
+        <v>2360.516429368669</v>
       </c>
       <c r="S16" t="n">
-        <v>2360.516429368668</v>
+        <v>2177.3462391076</v>
       </c>
       <c r="T16" t="n">
-        <v>2140.83764708305</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U16" t="n">
-        <v>1851.761433397777</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V16" t="n">
-        <v>1597.07694519189</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W16" t="n">
-        <v>1307.65977515493</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X16" t="n">
-        <v>1079.670224256912</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y16" t="n">
-        <v>858.8776451133821</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,28 +5507,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>2283.159972732779</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121613</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998256</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L19" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956955</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X19" t="n">
-        <v>1327.139029956955</v>
+        <v>916.294644713838</v>
       </c>
       <c r="Y19" t="n">
-        <v>1106.346450813425</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5835,16 +5835,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1103.652278938886</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>727.9786782557269</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C22" t="n">
-        <v>559.04249532782</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D22" t="n">
-        <v>408.9258559154844</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330914</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330914</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5905,13 +5905,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.409273127514</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y22" t="n">
-        <v>909.6271430859666</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6072,22 +6072,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>710.2486053718725</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.0424953278209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>559.0424953278209</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330921</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6151,7 +6151,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6160,7 +6160,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2022.649975098258</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1733.574748442456</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1478.890260236569</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1189.473090199608</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>961.4835393015908</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>740.6909601580606</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,7 +6248,7 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L27" t="n">
-        <v>579.1554649516144</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M27" t="n">
-        <v>1176.533952578166</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N27" t="n">
-        <v>1804.131916132773</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O27" t="n">
-        <v>2356.04164637206</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,49 +6358,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>847.6442739835322</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835322</v>
+        <v>390.823249958217</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711965</v>
+        <v>240.7066105458813</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888035</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N28" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
@@ -6418,16 +6418,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1478.074868855319</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1478.074868855319</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.085317957302</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.292738813772</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075802</v>
@@ -6488,10 +6488,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>878.3568999154069</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C31" t="n">
-        <v>709.4207169875</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D31" t="n">
-        <v>559.3040775751642</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E31" t="n">
-        <v>411.390983992771</v>
+        <v>197.0043242297704</v>
       </c>
       <c r="F31" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>264.5010364948607</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>122.7892053370588</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="32">
@@ -6695,22 +6695,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,22 +6774,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>740.5562989961526</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683104</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6871,7 +6871,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919729</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,19 +6929,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,31 +6950,31 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591808</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>579.1554649516144</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1176.533952578166</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1016.580456911439</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C37" t="n">
-        <v>847.6442739835322</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711965</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888035</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908931</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7105,40 +7105,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1647.011051783226</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1647.011051783226</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1419.021500885209</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y37" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="38">
@@ -7169,16 +7169,16 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7190,7 +7190,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852256</v>
@@ -7199,22 +7199,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273906</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273906</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>692.9625378792909</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1320.560501433898</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876727</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597658</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474299</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F40" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797189</v>
@@ -7333,7 +7333,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797745</v>
@@ -7342,7 +7342,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
         <v>2035.089393279803</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.74706939642</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.32989935946</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614425</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179124</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7406,10 +7406,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075802</v>
@@ -7418,7 +7418,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7494,22 +7494,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7570,7 +7570,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
         <v>826.1405381797745</v>
@@ -7591,28 +7591,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,7 +7658,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>874.8686257536382</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C46" t="n">
-        <v>705.9324428257312</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D46" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7846,10 +7846,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1095.661204897168</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y46" t="n">
-        <v>874.8686257536382</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
   </sheetData>
@@ -8055,22 +8055,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>6.454437538930279</v>
+        <v>73.66059580999774</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179984</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>249.3877325071651</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8301,19 +8301,19 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.160150103916</v>
+        <v>45.76488231024575</v>
       </c>
       <c r="P6" t="n">
-        <v>224.3355197601769</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,10 +23267,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>378.7585491187058</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>37.67740990529971</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>133.5130168453176</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.92986183395104</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729121</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>50.29152613729303</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>127.8750799032128</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>65.06136363537664</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>23.61400951932572</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46.45968844823402</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>46.45968844822971</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>211.9838267404995</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.73700564187197</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24491,7 +24491,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>45.44677382459234</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24658,10 +24658,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>43.92976817443525</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>43.26526345295055</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>52.58301945236988</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>99.1279816392569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.45968844823132</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,10 +25369,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>211.1765892730596</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25555,13 +25555,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>145.6085800303748</v>
+        <v>46.45968844823044</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,16 +25786,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>44.73700564187206</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26020,7 +26020,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26029,13 +26029,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>177.5728945814933</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>892396.5583368057</v>
+        <v>892396.5583368064</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>971144.9975107972</v>
+        <v>971144.9975107975</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731676</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>976505.1911731679</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731676</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>976505.1911731678</v>
+        <v>976505.1911731677</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.9734253558</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>405380.839779504</v>
+        <v>405380.8397795043</v>
       </c>
       <c r="F2" t="n">
         <v>441473.874400917</v>
       </c>
       <c r="G2" t="n">
+        <v>443930.6298295035</v>
+      </c>
+      <c r="H2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="H2" t="n">
-        <v>443930.6298295035</v>
       </c>
       <c r="I2" t="n">
         <v>443930.6298295034</v>
@@ -26344,16 +26344,16 @@
         <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
         <v>443930.6298295034</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>192627.1404403379</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185153</v>
+        <v>143114.1392185157</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051381</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557934</v>
+        <v>11167.2362355788</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099828</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819068</v>
+        <v>48293.97000819077</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115324</v>
+        <v>37377.32855115327</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848914</v>
+        <v>43782.40655848942</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224748</v>
+        <v>3023.297977224584</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135522.1369769831</v>
+        <v>135522.1369769832</v>
       </c>
       <c r="C4" t="n">
         <v>135522.1369769831</v>
@@ -26424,7 +26424,7 @@
         <v>87914.29116309559</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.135434438242</v>
+        <v>8628.13543443824</v>
       </c>
       <c r="F4" t="n">
         <v>8720.723770518931</v>
@@ -26445,16 +26445,16 @@
         <v>8727.256391744284</v>
       </c>
       <c r="L4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8727.256391744257</v>
+      </c>
+      <c r="O4" t="n">
         <v>8727.256391744284</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8727.256391744284</v>
-      </c>
-      <c r="O4" t="n">
-        <v>8727.256391744268</v>
       </c>
       <c r="P4" t="n">
         <v>8727.256391744284</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.72216214708</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26525,43 +26525,43 @@
         <v>223113.064008528</v>
       </c>
       <c r="D6" t="n">
-        <v>63097.60126052909</v>
+        <v>63097.60126052905</v>
       </c>
       <c r="E6" t="n">
-        <v>167544.8429644034</v>
+        <v>167334.8787205585</v>
       </c>
       <c r="F6" t="n">
-        <v>166089.6750114216</v>
+        <v>166043.7700158559</v>
       </c>
       <c r="G6" t="n">
-        <v>322913.6073782726</v>
+        <v>322878.8694528376</v>
       </c>
       <c r="H6" t="n">
-        <v>334080.8436138521</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="I6" t="n">
-        <v>334080.843613852</v>
+        <v>334046.1056884163</v>
       </c>
       <c r="J6" t="n">
-        <v>166475.6658038693</v>
+        <v>166440.9278784339</v>
       </c>
       <c r="K6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884162</v>
       </c>
       <c r="L6" t="n">
-        <v>285786.8736056613</v>
+        <v>285752.1356802255</v>
       </c>
       <c r="M6" t="n">
-        <v>296703.5150626988</v>
+        <v>296668.777137263</v>
       </c>
       <c r="N6" t="n">
-        <v>290298.4370553629</v>
+        <v>290263.6991299269</v>
       </c>
       <c r="O6" t="n">
-        <v>331057.5456366273</v>
+        <v>331022.8077111916</v>
       </c>
       <c r="P6" t="n">
-        <v>334080.8436138519</v>
+        <v>334046.1056884162</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
@@ -26744,10 +26744,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716385</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086472</v>
+        <v>981.3883278086474</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099649</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012576</v>
       </c>
       <c r="F3" t="n">
         <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288375</v>
+        <v>9.93445162528792</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,19 +26981,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.816623302254</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063548</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364211</v>
+        <v>12.56299777364143</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063546</v>
+        <v>149.9868724063549</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173588</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364234</v>
+        <v>12.56299777364165</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>270.4447900745178</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>328.4904192026581</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>31.65432874128362</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>90.46789842021407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27585,7 +27585,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,13 +27622,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>188.1554948249525</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27673,10 +27673,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>131.3309963134158</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>66.19465619041171</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>173.2750277963217</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>126.9466649272287</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>328.317309923022</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>96.41917990352117</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>183.1216701278873</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -29439,7 +29439,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>9.426533627750662e-13</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -29572,7 +29572,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>-4.25643377825569e-13</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30183,7 +30183,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>3.694822225952521e-12</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-2.114093871441317e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30438,7 +30438,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.984279490192421e-12</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485647</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508989</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
         <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726053</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216968</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857421</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898383</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294404</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615134</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895584</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
@@ -31792,7 +31792,7 @@
         <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596473</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783041</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202552</v>
+        <v>421.0233277202553</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>566.1178216256415</v>
       </c>
       <c r="M12" t="n">
-        <v>660.6327957845326</v>
+        <v>583.7591506492925</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147137</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431806</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205468</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>319.6032075114957</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>161.8819085533296</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697584</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
         <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
         <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
         <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570605</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826899</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377424</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122281</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830429</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364261</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293306</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229606</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.857844208695</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687522</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148605</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4367569201901939</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540904</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735817</v>
+        <v>139.4267020936821</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848223</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745723</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.13237155043</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927636</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>413.7326212867947</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862159</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291842</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284924</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273332</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900885</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416873</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282423</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851327</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>210.3948924365567</v>
       </c>
       <c r="N18" t="n">
-        <v>748.8168776781358</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,19 +32555,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>671.9287955253226</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,16 +32792,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>460.4622569139909</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>295.974394015948</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>764.2478901092629</v>
+        <v>748.8168776781358</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33488,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33503,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>610.054682604365</v>
       </c>
       <c r="M33" t="n">
-        <v>638.4800548179292</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>691.6611968462889</v>
+        <v>705.9257335045849</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,25 +33968,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>687.0167715190033</v>
+        <v>333.9544784328822</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214699</v>
@@ -34214,10 +34214,10 @@
         <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>444.2274915982891</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071786</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236508</v>
@@ -34448,7 +34448,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473073</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O45" t="n">
-        <v>308.1572428165614</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>304.1347981767805</v>
+        <v>371.3409564478479</v>
       </c>
       <c r="M3" t="n">
-        <v>640.584832100039</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>640.584832100039</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35021,19 +35021,19 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.584832100039</v>
+        <v>381.1895643063687</v>
       </c>
       <c r="P6" t="n">
-        <v>474.0150488837091</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276248</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584694</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932474</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077536</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062438</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151089</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156587</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>119.4959557116374</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458962</v>
+        <v>283.1818887458963</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>427.5634418457673</v>
       </c>
       <c r="M12" t="n">
-        <v>518.4987618625144</v>
+        <v>441.6251167272741</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313804</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987362</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>179.6214334254742</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
-        <v>16.20240458936561</v>
+        <v>16.20240458936567</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.1825931670183</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765378</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998349</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380623</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664388</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020579</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263696</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870083</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134826</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.254733440411</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.357360784584</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J15" t="n">
-        <v>149.139375506915</v>
+        <v>12.5890754270154</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104633</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946981</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094304</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>279.7582138724644</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066046</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L16" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>68.26085851453838</v>
       </c>
       <c r="N18" t="n">
-        <v>617.4751655948025</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>529.7947616033043</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>322.6208179396319</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>161.9999866016177</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>632.9061780259296</v>
+        <v>617.4751655948025</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="M33" t="n">
-        <v>496.3460208959108</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>560.3194847629557</v>
+        <v>574.5840214212516</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,25 +37461,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066287</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
         <v>120.4022572998984</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>544.4205270745589</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071396</v>
@@ -37862,10 +37862,10 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238454</v>
@@ -37874,13 +37874,13 @@
         <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243148</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683813</v>
@@ -38096,7 +38096,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.3288951674331</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O45" t="n">
-        <v>165.5609983721169</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
